--- a/data/xlsx/01162019.xlsx
+++ b/data/xlsx/01162019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F5B53F-AA54-6F49-BF2C-2DCBB49EB4DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEA4B79-3363-814C-90C8-C46BFDCA7065}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,10 +346,6 @@
     <t>(FWA-E) REPORTS VANDALISM VIA CLAY TO WINDOWS, CESAR CHAVEZ ART STUDIO.</t>
   </si>
   <si>
-    <t>(MW-26-O) REPORTS THEFT OF 2 IPOD TOUCHES, AMAZON STORE. LOSS $200
-SUSPECT; BLACK FEMALE ADULT, THIN BUILD, BLUE HOODED SWEATSHIRT, SUNGLASSES, BLUE JEANS, CARRYING GROCERY BAGS.</t>
-  </si>
-  <si>
     <t>ALL OTHER OFFENSES</t>
   </si>
   <si>
@@ -417,6 +413,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>(MW-26-O) REPORTS THEFT OF 2 IPOD TOUCHES, AMAZON STORE. LOSS $200. SUSPECT; BLACK FEMALE ADULT, THIN BUILD, BLUE HOODED SWEATSHIRT, SUNGLASSES, BLUE JEANS, CARRYING GROCERY BAGS.</t>
   </si>
 </sst>
 </file>
@@ -811,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:H33"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -823,14 +822,11 @@
     <col min="2" max="2" width="8"/>
     <col min="3" max="3" width="13"/>
     <col min="4" max="4" width="19"/>
-    <col min="8" max="9" width="21"/>
-    <col min="10" max="10" width="14"/>
-    <col min="11" max="11" width="9"/>
-    <col min="12" max="12" width="21"/>
-    <col min="13" max="13" width="12"/>
+    <col min="8" max="8" width="21"/>
+    <col min="9" max="9" width="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -847,17 +843,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>43481</v>
       </c>
@@ -882,9 +877,8 @@
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>43481</v>
       </c>
@@ -898,7 +892,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3">
         <v>37.873480999999998</v>
@@ -907,11 +901,10 @@
         <v>-122.26791299999999</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>43481</v>
       </c>
@@ -934,11 +927,10 @@
         <v>-122.25559800000001</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>43481</v>
       </c>
@@ -952,7 +944,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5">
         <v>37.866335999999997</v>
@@ -961,11 +953,10 @@
         <v>-122.257558</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>43481</v>
       </c>
@@ -988,11 +979,10 @@
         <v>-122.262164</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>43481</v>
       </c>
@@ -1015,11 +1005,10 @@
         <v>-122.254817</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>43481</v>
       </c>
@@ -1033,7 +1022,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8">
         <v>37.866334000000002</v>
@@ -1042,11 +1031,10 @@
         <v>37.866334000000002</v>
       </c>
       <c r="H8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>43481</v>
       </c>
@@ -1060,7 +1048,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9">
         <v>37.868340000000003</v>
@@ -1069,11 +1057,10 @@
         <v>-122.254451</v>
       </c>
       <c r="H9" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <v>43481</v>
       </c>
@@ -1098,10 +1085,8 @@
       <c r="H10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5">
         <v>43481</v>
       </c>
@@ -1126,10 +1111,8 @@
       <c r="H11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" ht="154">
+    </row>
+    <row r="12" spans="1:9" ht="154">
       <c r="A12" s="5">
         <v>43481</v>
       </c>
@@ -1152,12 +1135,10 @@
         <v>-122.259407</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:13">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="5">
         <v>43481</v>
       </c>
@@ -1180,10 +1161,10 @@
         <v>-122.261031</v>
       </c>
       <c r="H13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="5">
         <v>43481</v>
       </c>
@@ -1206,12 +1187,11 @@
         <v>-122.260716</v>
       </c>
       <c r="H14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="5">
         <v>43481</v>
       </c>
@@ -1219,10 +1199,10 @@
         <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>45</v>
@@ -1234,14 +1214,11 @@
         <v>-122.260716</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="5">
         <v>43481</v>
       </c>
@@ -1249,10 +1226,10 @@
         <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>45</v>
@@ -1264,14 +1241,11 @@
         <v>-122.260716</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="5">
         <v>43481</v>
       </c>
@@ -1285,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17">
         <v>37.875230999999999</v>
@@ -1294,13 +1268,11 @@
         <v>-122.261365</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13">
+        <v>113</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="5">
         <v>43481</v>
       </c>
@@ -1323,11 +1295,11 @@
         <v>-122.25959</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
-      </c>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13">
+        <v>130</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="5">
         <v>43481</v>
       </c>
@@ -1338,10 +1310,10 @@
         <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F19">
         <v>37.871597999999999</v>
@@ -1350,13 +1322,11 @@
         <v>-122.26321</v>
       </c>
       <c r="H19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13">
+        <v>130</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="5">
         <v>43481</v>
       </c>
@@ -1379,11 +1349,10 @@
         <v>-122.263965</v>
       </c>
       <c r="H20" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="5">
         <v>43481</v>
       </c>
@@ -1406,11 +1375,10 @@
         <v>-122.25859699999999</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="5">
         <v>43481</v>
       </c>
@@ -1424,7 +1392,7 @@
         <v>102</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F22">
         <v>37.871837999999997</v>
@@ -1433,11 +1401,10 @@
         <v>-122.266959</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="5">
         <v>43481</v>
       </c>
@@ -1451,7 +1418,7 @@
         <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23">
         <v>37.866238000000003</v>
@@ -1460,11 +1427,10 @@
         <v>-122.262142</v>
       </c>
       <c r="H23" t="s">
-        <v>131</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="5">
         <v>43481</v>
       </c>
@@ -1478,7 +1444,7 @@
         <v>68</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24">
         <v>37.865434</v>
@@ -1487,11 +1453,10 @@
         <v>-122.256109</v>
       </c>
       <c r="H24" t="s">
-        <v>131</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="5">
         <v>43481</v>
       </c>
@@ -1514,11 +1479,10 @@
         <v>-122.258199</v>
       </c>
       <c r="H25" t="s">
-        <v>131</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="5">
         <v>43481</v>
       </c>
@@ -1541,11 +1505,10 @@
         <v>-122.266867</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="5">
         <v>43481</v>
       </c>
@@ -1553,10 +1516,10 @@
         <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>77</v>
@@ -1568,11 +1531,10 @@
         <v>-122.30268100000001</v>
       </c>
       <c r="H27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="5">
         <v>43481</v>
       </c>
@@ -1595,11 +1557,10 @@
         <v>-122.259407</v>
       </c>
       <c r="H28" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="5">
         <v>43481</v>
       </c>
@@ -1622,11 +1583,10 @@
         <v>-122.257058</v>
       </c>
       <c r="H29" t="s">
-        <v>131</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="5">
         <v>43481</v>
       </c>
@@ -1649,11 +1609,10 @@
         <v>-122.262164</v>
       </c>
       <c r="H30" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="5">
         <v>43481</v>
       </c>
@@ -1671,11 +1630,10 @@
       </c>
       <c r="F31" s="2"/>
       <c r="H31" t="s">
-        <v>131</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="5">
         <v>43481</v>
       </c>
@@ -1689,7 +1647,7 @@
         <v>95</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F32">
         <v>37.870193</v>
@@ -1698,11 +1656,10 @@
         <v>-122.265765</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="5">
         <v>43481</v>
       </c>
@@ -1725,9 +1682,8 @@
         <v>-122.260716</v>
       </c>
       <c r="H33" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="2"/>
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/01162019.xlsx
+++ b/data/xlsx/01162019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEA4B79-3363-814C-90C8-C46BFDCA7065}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451482D9-D7C5-B14E-880D-6BA7A510E7BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,6 +422,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -471,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -813,7 +816,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
